--- a/Assets/Spreadsheet Localizations/Scripts/Naninovel/School.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/Naninovel/School.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\OCTO GAMES\Assets\Spreadsheet Localizations\Scripts\Naninovel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AB10E3-65F4-4195-9BAC-0C663FCF8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF7337-630A-4892-A228-540D1EC1D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Template</t>
   </si>
@@ -242,91 +242,172 @@
     <t>...</t>
   </si>
   <si>
+    <t>Привіт, хто ти?</t>
+  </si>
+  <si>
+    <t>Мене звати Еліс, а тебе?</t>
+  </si>
+  <si>
+    <t>Мене звати {Player_Name}</t>
+  </si>
+  <si>
+    <t>Приємно познайомитися, {Player_Name}</t>
+  </si>
+  <si>
+    <t>Ходімо, я познайомлю тебе з Чаном</t>
+  </si>
+  <si>
+    <t>Ходімо</t>
+  </si>
+  <si>
+    <t>Це Чан</t>
+  </si>
+  <si>
+    <t>Привіт!</t>
+  </si>
+  <si>
+    <t>Приємно познайомитися, Чан</t>
+  </si>
+  <si>
+    <t>Мені треба йти.</t>
+  </si>
+  <si>
+    <t>Бувай</t>
+  </si>
+  <si>
+    <t>Я придбав нову консоль, хочеш пограти?</t>
+  </si>
+  <si>
+    <t>так</t>
+  </si>
+  <si>
+    <t>Грати</t>
+  </si>
+  <si>
+    <t>Чудова гра!</t>
+  </si>
+  <si>
+    <t>Мені слід подарувати дівчатам якийсь подарунок.</t>
+  </si>
+  <si>
+    <t>Тут немає чим зайнятися.</t>
+  </si>
+  <si>
+    <t>Привіт</t>
+  </si>
+  <si>
+    <t>Я придурок, у мене лише один подарунок</t>
+  </si>
+  <si>
+    <t>Дай це мені, будь ласка.</t>
+  </si>
+  <si>
+    <t>Ні, мені це більше підходить.</t>
+  </si>
+  <si>
+    <t>"Подарувати подарунок Анні"</t>
+  </si>
+  <si>
+    <t>"Подарувати подарунок Чану"</t>
+  </si>
+  <si>
+    <t>"Подарувати подарунок мені"</t>
+  </si>
+  <si>
+    <t>Я дуже радий.</t>
+  </si>
+  <si>
+    <t>Я маю на тебе злість</t>
+  </si>
+  <si>
+    <t>Думаю, вона на уроці</t>
+  </si>
+  <si>
     <t>uk</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Привіт, хто ти?</t>
-  </si>
-  <si>
-    <t>Мене звати Еліс, а тебе?</t>
-  </si>
-  <si>
-    <t>Мене звати {Player_Name}</t>
-  </si>
-  <si>
-    <t>Приємно познайомитися, {Player_Name}</t>
-  </si>
-  <si>
-    <t>Ходімо, я познайомлю тебе з Чаном</t>
-  </si>
-  <si>
-    <t>"Ходімо"</t>
-  </si>
-  <si>
-    <t>Це Чан</t>
-  </si>
-  <si>
-    <t>Привіт!</t>
-  </si>
-  <si>
-    <t>Приємно познайомитися, Чан</t>
-  </si>
-  <si>
-    <t>Мені треба йти.</t>
-  </si>
-  <si>
-    <t>Бувай</t>
-  </si>
-  <si>
-    <t>Я придбав нову консоль, хочеш пограти?</t>
-  </si>
-  <si>
-    <t>так</t>
-  </si>
-  <si>
-    <t>Грати</t>
-  </si>
-  <si>
-    <t>Чудова гра!</t>
-  </si>
-  <si>
-    <t>Мені слід подарувати дівчатам якийсь подарунок.</t>
-  </si>
-  <si>
-    <t>Тут немає чим зайнятися.</t>
-  </si>
-  <si>
-    <t>Привіт</t>
-  </si>
-  <si>
-    <t>Я придурок, у мене лише один подарунок</t>
-  </si>
-  <si>
-    <t>Дай це мені, будь ласка.</t>
-  </si>
-  <si>
-    <t>Ні, мені це більше підходить.</t>
-  </si>
-  <si>
-    <t>"Подарувати подарунок Анні"</t>
-  </si>
-  <si>
-    <t>"Подарувати подарунок Чану"</t>
-  </si>
-  <si>
-    <t>"Подарувати подарунок мені"</t>
-  </si>
-  <si>
-    <t>Я дуже радий.</t>
-  </si>
-  <si>
-    <t>Я маю на тебе злість</t>
-  </si>
-  <si>
-    <t>Думаю, вона на уроці</t>
+    <t>Hello, who are you?</t>
+  </si>
+  <si>
+    <t>My name is Alice, and yours?</t>
+  </si>
+  <si>
+    <t>My name is {Player_Name}</t>
+  </si>
+  <si>
+    <t>Nice to meet you, {Player_Name}</t>
+  </si>
+  <si>
+    <t>Let's go, I'll introduce you to Chan</t>
+  </si>
+  <si>
+    <t>Let's go</t>
+  </si>
+  <si>
+    <t>This is Chan</t>
+  </si>
+  <si>
+    <t>Hello!</t>
+  </si>
+  <si>
+    <t>Nice to meet you, Chan</t>
+  </si>
+  <si>
+    <t>I have to go.</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>I bought a new console, do you want to play?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Great game!</t>
+  </si>
+  <si>
+    <t>I should give the girls a gift.</t>
+  </si>
+  <si>
+    <t>There’s nothing to do here.</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>I'm a fool, I only have one gift</t>
+  </si>
+  <si>
+    <t>Give it to me, please.</t>
+  </si>
+  <si>
+    <t>No, it suits me better.</t>
+  </si>
+  <si>
+    <t>"Give the gift to Anna"</t>
+  </si>
+  <si>
+    <t>"Give the gift to Chan"</t>
+  </si>
+  <si>
+    <t>"Give the gift to myself"</t>
+  </si>
+  <si>
+    <t>I'm very happy.</t>
+  </si>
+  <si>
+    <t>I'm mad at you</t>
+  </si>
+  <si>
+    <t>I think she's in class</t>
   </si>
 </sst>
 </file>
@@ -1208,13 +1289,13 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,7 +1317,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1266,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1358,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1369,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1402,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1413,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1424,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,10 +1435,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1446,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1457,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,10 +1468,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,10 +1479,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,10 +1501,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,10 +1512,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,10 +1545,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1556,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1567,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,10 +1578,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,10 +1589,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,10 +1611,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,10 +1622,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,10 +1633,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,10 +1644,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
